--- a/100runs/run037/NotionalETEOutput037.xlsx
+++ b/100runs/run037/NotionalETEOutput037.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_232.MISSILE_HIGHWIND_232</t>
+    <t>MISSILE_BRAVER_44.MISSILE_BRAVER_44</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -471,22 +471,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>302.4925791001946</v>
+        <v>1116578.469242416</v>
       </c>
       <c r="G2">
-        <v>-61.35565687829833</v>
+        <v>4841120.86933331</v>
       </c>
       <c r="H2">
-        <v>971.0357957168466</v>
+        <v>3985225.864838112</v>
       </c>
       <c r="I2">
-        <v>-1746.029059895766</v>
+        <v>1114860.456511798</v>
       </c>
       <c r="J2">
-        <v>1141.927834532728</v>
+        <v>4843221.307216831</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984368.655634639</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>302.4925791001946</v>
+        <v>1116578.469242416</v>
       </c>
       <c r="G3">
-        <v>-61.35565687829833</v>
+        <v>4841120.86933331</v>
       </c>
       <c r="H3">
-        <v>971.0357957168466</v>
+        <v>3985225.864838112</v>
       </c>
       <c r="I3">
-        <v>-1711.55779703669</v>
+        <v>1114890.070484331</v>
       </c>
       <c r="J3">
-        <v>1114.149533132674</v>
+        <v>4843172.655648359</v>
       </c>
       <c r="K3">
-        <v>469.5112038243722</v>
+        <v>3984672.451499624</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>302.4925791001946</v>
+        <v>1116578.469242416</v>
       </c>
       <c r="G4">
-        <v>-61.35565687829833</v>
+        <v>4841120.86933331</v>
       </c>
       <c r="H4">
-        <v>971.0357957168466</v>
+        <v>3985225.864838112</v>
       </c>
       <c r="I4">
-        <v>-1676.23771104269</v>
+        <v>1114920.413673693</v>
       </c>
       <c r="J4">
-        <v>1086.371231732621</v>
+        <v>4843124.004079886</v>
       </c>
       <c r="K4">
-        <v>915.6104268639651</v>
+        <v>3984961.09871023</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>302.4925791001946</v>
+        <v>1116578.469242416</v>
       </c>
       <c r="G5">
-        <v>-61.35565687829833</v>
+        <v>4841120.86933331</v>
       </c>
       <c r="H5">
-        <v>971.0357957168466</v>
+        <v>3985225.864838112</v>
       </c>
       <c r="I5">
-        <v>-1640.04790042497</v>
+        <v>1114951.504036178</v>
       </c>
       <c r="J5">
-        <v>1058.592930332567</v>
+        <v>4843075.352511414</v>
       </c>
       <c r="K5">
-        <v>1338.297669118782</v>
+        <v>3985234.597266457</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>302.4925791001946</v>
+        <v>1116578.469242416</v>
       </c>
       <c r="G6">
-        <v>-61.35565687829833</v>
+        <v>4841120.86933331</v>
       </c>
       <c r="H6">
-        <v>971.0357957168466</v>
+        <v>3985225.864838112</v>
       </c>
       <c r="I6">
-        <v>-1602.966949014805</v>
+        <v>1114983.359970236</v>
       </c>
       <c r="J6">
-        <v>1030.814628932514</v>
+        <v>4843026.700942942</v>
       </c>
       <c r="K6">
-        <v>1737.57293058882</v>
+        <v>3985492.947168306</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>302.4925791001946</v>
+        <v>1116578.469242416</v>
       </c>
       <c r="G7">
-        <v>-61.35565687829833</v>
+        <v>4841120.86933331</v>
       </c>
       <c r="H7">
-        <v>971.0357957168466</v>
+        <v>3985225.864838112</v>
       </c>
       <c r="I7">
-        <v>-1564.972913290014</v>
+        <v>1115016.000327364</v>
       </c>
       <c r="J7">
-        <v>1003.03632753246</v>
+        <v>4842978.04937447</v>
       </c>
       <c r="K7">
-        <v>2113.436211274083</v>
+        <v>3985736.148415777</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>302.4925791001946</v>
+        <v>1116578.469242416</v>
       </c>
       <c r="G8">
-        <v>-61.35565687829833</v>
+        <v>4841120.86933331</v>
       </c>
       <c r="H8">
-        <v>971.0357957168466</v>
+        <v>3985225.864838112</v>
       </c>
       <c r="I8">
-        <v>-1526.043309389371</v>
+        <v>1115049.444423258</v>
       </c>
       <c r="J8">
-        <v>975.2580261324061</v>
+        <v>4842929.397805997</v>
       </c>
       <c r="K8">
-        <v>2465.887511174568</v>
+        <v>3985964.201008869</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>302.4925791001946</v>
+        <v>1116578.469242416</v>
       </c>
       <c r="G9">
-        <v>-61.35565687829833</v>
+        <v>4841120.86933331</v>
       </c>
       <c r="H9">
-        <v>971.0357957168466</v>
+        <v>3985225.864838112</v>
       </c>
       <c r="I9">
-        <v>-1486.155099807255</v>
+        <v>1115083.712049245</v>
       </c>
       <c r="J9">
-        <v>947.4797247323523</v>
+        <v>4842880.746237525</v>
       </c>
       <c r="K9">
-        <v>2794.926830290276</v>
+        <v>3986177.104947583</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>302.4925791001946</v>
+        <v>1116578.469242416</v>
       </c>
       <c r="G10">
-        <v>-51.22411087957175</v>
+        <v>4841137.382139921</v>
       </c>
       <c r="H10">
-        <v>971.0357957168466</v>
+        <v>3985225.864838112</v>
       </c>
       <c r="I10">
-        <v>-1445.284679760659</v>
+        <v>1115118.823483996</v>
       </c>
       <c r="J10">
-        <v>919.7014233322988</v>
+        <v>4842832.094669052</v>
       </c>
       <c r="K10">
-        <v>3100.554168621205</v>
+        <v>3986374.860231919</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>234.7695290947981</v>
+        <v>1116529.788680154</v>
       </c>
       <c r="G11">
-        <v>-41.09256488084517</v>
+        <v>4841153.894946531</v>
       </c>
       <c r="H11">
-        <v>1196.309566169086</v>
+        <v>3985425.119121715</v>
       </c>
       <c r="I11">
-        <v>-1403.407863220512</v>
+        <v>1115154.799505526</v>
       </c>
       <c r="J11">
-        <v>891.9231219322452</v>
+        <v>4842783.443100581</v>
       </c>
       <c r="K11">
-        <v>3382.769526167356</v>
+        <v>3986557.466861876</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>194.9856345715543</v>
+        <v>1116501.191291907</v>
       </c>
       <c r="G12">
-        <v>-30.96101888211859</v>
+        <v>4841170.407753143</v>
       </c>
       <c r="H12">
-        <v>1330.494144788444</v>
+        <v>3985543.80516328</v>
       </c>
       <c r="I12">
-        <v>-1360.499868599029</v>
+        <v>1115191.661403489</v>
       </c>
       <c r="J12">
-        <v>864.1448205321915</v>
+        <v>4842734.791532108</v>
       </c>
       <c r="K12">
-        <v>3641.572902928732</v>
+        <v>3986724.924837455</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>169.8711216543085</v>
+        <v>1116483.138522434</v>
       </c>
       <c r="G13">
-        <v>-20.829472883392</v>
+        <v>4841186.920559753</v>
       </c>
       <c r="H13">
-        <v>1426.386793938738</v>
+        <v>3985628.622055504</v>
       </c>
       <c r="I13">
-        <v>-1316.535304084623</v>
+        <v>1115229.430991777</v>
       </c>
       <c r="J13">
-        <v>836.3665191321378</v>
+        <v>4842686.139963636</v>
       </c>
       <c r="K13">
-        <v>3876.96429890533</v>
+        <v>3986877.234158656</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>152.3563622916143</v>
+        <v>1116470.548594285</v>
       </c>
       <c r="G14">
-        <v>-10.69792688466542</v>
+        <v>4841203.433366363</v>
       </c>
       <c r="H14">
-        <v>1501.058348457549</v>
+        <v>3985694.668924037</v>
       </c>
       <c r="I14">
-        <v>-1271.488152615707</v>
+        <v>1115268.130621429</v>
       </c>
       <c r="J14">
-        <v>808.588217732084</v>
+        <v>4842637.488395164</v>
       </c>
       <c r="K14">
-        <v>4088.943714097151</v>
+        <v>3987014.394825478</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>139.2898272998462</v>
+        <v>1116461.15613086</v>
       </c>
       <c r="G15">
-        <v>-0.5663808859388422</v>
+        <v>4841219.946172974</v>
       </c>
       <c r="H15">
-        <v>1562.220143662178</v>
+        <v>3985748.766432429</v>
       </c>
       <c r="I15">
-        <v>-1225.331756484489</v>
+        <v>1115307.783193858</v>
       </c>
       <c r="J15">
-        <v>780.8099163320304</v>
+        <v>4842588.836826691</v>
       </c>
       <c r="K15">
-        <v>4277.511148504193</v>
+        <v>3987136.406837922</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>129.073621623799</v>
+        <v>1116453.81253608</v>
       </c>
       <c r="G16">
-        <v>9.565165112787744</v>
+        <v>4841236.458979583</v>
       </c>
       <c r="H16">
-        <v>1614.019719605837</v>
+        <v>3985794.583073109</v>
       </c>
       <c r="I16">
-        <v>-1178.038801561646</v>
+        <v>1115348.412174404</v>
       </c>
       <c r="J16">
-        <v>753.0316149319767</v>
+        <v>4842540.185258219</v>
       </c>
       <c r="K16">
-        <v>4442.666602126459</v>
+        <v>3987243.270195987</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>120.8079673655501</v>
+        <v>1116447.871033199</v>
       </c>
       <c r="G17">
-        <v>19.69671111151433</v>
+        <v>4841252.971786194</v>
       </c>
       <c r="H17">
-        <v>1658.946417628223</v>
+        <v>3985834.320664446</v>
       </c>
       <c r="I17">
-        <v>-1129.581301132548</v>
+        <v>1115390.041606217</v>
       </c>
       <c r="J17">
-        <v>725.2533135319231</v>
+        <v>4842491.533689747</v>
       </c>
       <c r="K17">
-        <v>4584.410074963947</v>
+        <v>3987334.984899674</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>113.944529113597</v>
+        <v>1116442.937468731</v>
       </c>
       <c r="G18">
-        <v>29.82825711024091</v>
+        <v>4841269.484592806</v>
       </c>
       <c r="H18">
-        <v>1698.61224631906</v>
+        <v>3985869.405025414</v>
       </c>
       <c r="I18">
-        <v>-1079.930579335467</v>
+        <v>1115432.696124491</v>
       </c>
       <c r="J18">
-        <v>697.4750121318694</v>
+        <v>4842442.882121275</v>
       </c>
       <c r="K18">
-        <v>4702.741567016658</v>
+        <v>3987411.550948983</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>108.1282816046309</v>
+        <v>1116438.756644049</v>
       </c>
       <c r="G19">
-        <v>39.9598031089675</v>
+        <v>4841285.997399416</v>
       </c>
       <c r="H19">
-        <v>1734.121144907591</v>
+        <v>3985900.812588468</v>
       </c>
       <c r="I19">
-        <v>-1029.057254191959</v>
+        <v>1115476.400971035</v>
       </c>
       <c r="J19">
-        <v>669.6967107318156</v>
+        <v>4842394.230552803</v>
       </c>
       <c r="K19">
-        <v>4797.661078284593</v>
+        <v>3987472.968343913</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>103.118151810894</v>
+        <v>1116435.155271469</v>
       </c>
       <c r="G20">
-        <v>50.09134910769408</v>
+        <v>4841302.510206026</v>
       </c>
       <c r="H20">
-        <v>1766.262337742916</v>
+        <v>3985929.241421259</v>
       </c>
       <c r="I20">
-        <v>-976.9312202193925</v>
+        <v>1115521.182009219</v>
       </c>
       <c r="J20">
-        <v>641.9184093317621</v>
+        <v>4842345.578984329</v>
       </c>
       <c r="K20">
-        <v>4869.168608767748</v>
+        <v>3987519.237084466</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>98.74404961886576</v>
+        <v>1116432.011087117</v>
       </c>
       <c r="G21">
-        <v>60.22289510642065</v>
+        <v>4841319.023012637</v>
       </c>
       <c r="H21">
-        <v>1795.619647447511</v>
+        <v>3985955.20791395</v>
       </c>
       <c r="I21">
-        <v>-923.5216306153241</v>
+        <v>1115567.065739269</v>
       </c>
       <c r="J21">
-        <v>614.1401079317084</v>
+        <v>4842296.927415858</v>
       </c>
       <c r="K21">
-        <v>4917.264158466127</v>
+        <v>3987550.357170639</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>94.88213079986122</v>
+        <v>1116429.235069505</v>
       </c>
       <c r="G22">
-        <v>70.35444110514725</v>
+        <v>4841335.535819247</v>
       </c>
       <c r="H22">
-        <v>1822.637116131689</v>
+        <v>3985979.104821063</v>
       </c>
       <c r="I22">
-        <v>-868.7968790031765</v>
+        <v>1115614.07931396</v>
       </c>
       <c r="J22">
-        <v>586.3618065316548</v>
+        <v>4842248.275847386</v>
       </c>
       <c r="K22">
-        <v>4941.947727379729</v>
+        <v>3987566.328602435</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>91.43982134089735</v>
+        <v>1116426.760674747</v>
       </c>
       <c r="G23">
-        <v>80.48598710387382</v>
+        <v>4841352.048625859</v>
       </c>
       <c r="H23">
-        <v>1847.660348286763</v>
+        <v>3986001.237829208</v>
       </c>
       <c r="I23">
-        <v>-812.7245807284282</v>
+        <v>1115662.250554676</v>
       </c>
       <c r="J23">
-        <v>558.5835051316011</v>
+        <v>4842199.624278914</v>
       </c>
       <c r="K23">
-        <v>4943.219315508552</v>
+        <v>3987567.151379851</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>88.34636265153016</v>
+        <v>1116424.537040278</v>
       </c>
       <c r="G24">
-        <v>90.61753310260042</v>
+        <v>4841368.561432469</v>
       </c>
       <c r="H24">
-        <v>1870.963615520668</v>
+        <v>3986021.849531179</v>
       </c>
       <c r="I24">
-        <v>-755.271553694233</v>
+        <v>1115711.607967878</v>
       </c>
       <c r="J24">
-        <v>530.8052037315473</v>
+        <v>4842150.972710441</v>
       </c>
       <c r="K24">
-        <v>4921.0789228526</v>
+        <v>3987552.82550289</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>85.54662651925177</v>
+        <v>1116422.524538935</v>
       </c>
       <c r="G25">
-        <v>100.749079101327</v>
+        <v>4841385.074239079</v>
       </c>
       <c r="H25">
-        <v>1892.768230044211</v>
+        <v>3986041.135677265</v>
       </c>
       <c r="I25">
-        <v>-696.4037987251359</v>
+        <v>1115762.180761972</v>
       </c>
       <c r="J25">
-        <v>503.0269023314938</v>
+        <v>4842102.321141968</v>
       </c>
       <c r="K25">
-        <v>4875.526549411869</v>
+        <v>3987523.35097155</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>82.99694399990327</v>
+        <v>1116420.691780685</v>
       </c>
       <c r="G26">
-        <v>110.8806251000536</v>
+        <v>4841401.58704569</v>
       </c>
       <c r="H26">
-        <v>1913.255358697545</v>
+        <v>3986059.25650924</v>
       </c>
       <c r="I26">
-        <v>-636.0864794472666</v>
+        <v>1115813.998864594</v>
       </c>
       <c r="J26">
-        <v>475.24860093144</v>
+        <v>4842053.669573497</v>
       </c>
       <c r="K26">
-        <v>4806.562195186361</v>
+        <v>3987478.727785832</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>80.66221732545591</v>
+        <v>1116419.013536613</v>
       </c>
       <c r="G27">
-        <v>121.0121710987801</v>
+        <v>4841418.0998523</v>
       </c>
       <c r="H27">
-        <v>1932.575181461045</v>
+        <v>3986076.344861054</v>
       </c>
       <c r="I27">
-        <v>-574.283901673096</v>
+        <v>1115867.092940322</v>
       </c>
       <c r="J27">
-        <v>447.4702995313863</v>
+        <v>4842005.018005024</v>
       </c>
       <c r="K27">
-        <v>4714.185860176076</v>
+        <v>3987418.955945735</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>78.5138735296775</v>
+        <v>1116417.469267949</v>
       </c>
       <c r="G28">
-        <v>131.1437170975067</v>
+        <v>4841434.61265891</v>
       </c>
       <c r="H28">
-        <v>1950.853578581853</v>
+        <v>3986092.512073582</v>
       </c>
       <c r="I28">
-        <v>-510.9594922785658</v>
+        <v>1115921.494408819</v>
       </c>
       <c r="J28">
-        <v>419.6919981313327</v>
+        <v>4841956.366436552</v>
       </c>
       <c r="K28">
-        <v>4598.397544381014</v>
+        <v>3987344.03545126</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>76.52838468820811</v>
+        <v>1116416.042062394</v>
       </c>
       <c r="G29">
-        <v>141.2752630962333</v>
+        <v>4841451.125465522</v>
       </c>
       <c r="H29">
-        <v>1968.197105773123</v>
+        <v>3986107.852395177</v>
       </c>
       <c r="I29">
-        <v>-446.0757775600829</v>
+        <v>1115977.235463429</v>
       </c>
       <c r="J29">
-        <v>391.913696731279</v>
+        <v>4841907.71486808</v>
       </c>
       <c r="K29">
-        <v>4459.197247801174</v>
+        <v>3987253.966302407</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>74.68617837478928</v>
+        <v>1116414.717850931</v>
       </c>
       <c r="G30">
-        <v>151.4068090949599</v>
+        <v>4841467.638272132</v>
       </c>
       <c r="H30">
-        <v>1984.696757879814</v>
+        <v>3986122.446310631</v>
       </c>
       <c r="I30">
-        <v>-379.5943610585807</v>
+        <v>1116034.349090228</v>
       </c>
       <c r="J30">
-        <v>364.1353953312253</v>
+        <v>4841859.063299607</v>
       </c>
       <c r="K30">
-        <v>4296.584970436556</v>
+        <v>3987148.748499176</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>72.97082236329344</v>
+        <v>1116413.484821776</v>
       </c>
       <c r="G31">
-        <v>161.5383550936865</v>
+        <v>4841484.151078742</v>
       </c>
       <c r="H31">
-        <v>2000.430858660964</v>
+        <v>3986136.363097184</v>
       </c>
       <c r="I31">
-        <v>-311.4759008375108</v>
+        <v>1116092.869087543</v>
       </c>
       <c r="J31">
-        <v>336.3570939311717</v>
+        <v>4841810.411731135</v>
       </c>
       <c r="K31">
-        <v>4110.560712287162</v>
+        <v>3987028.382041566</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>71.3684056114798</v>
+        <v>1116412.332975419</v>
       </c>
       <c r="G32">
-        <v>171.6699010924131</v>
+        <v>4841500.663885353</v>
       </c>
       <c r="H32">
-        <v>2015.467309408984</v>
+        <v>3986149.662813417</v>
       </c>
       <c r="I32">
-        <v>-241.6800862013314</v>
+        <v>1116152.830085955</v>
       </c>
       <c r="J32">
-        <v>308.578792531118</v>
+        <v>4841761.760162663</v>
       </c>
       <c r="K32">
-        <v>3901.124473352989</v>
+        <v>3986892.866929577</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>69.86706205110674</v>
+        <v>1116411.253782313</v>
       </c>
       <c r="G33">
-        <v>181.8014470911396</v>
+        <v>4841517.176691963</v>
       </c>
       <c r="H33">
-        <v>2029.865359884896</v>
+        <v>3986162.397865648</v>
       </c>
       <c r="I33">
-        <v>-170.1656138407077</v>
+        <v>1116214.267568789</v>
       </c>
       <c r="J33">
-        <v>280.8004911310644</v>
+        <v>4841713.108594191</v>
       </c>
       <c r="K33">
-        <v>3668.276253634041</v>
+        <v>3986742.20316321</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>68.45659983493515</v>
+        <v>1116410.239916373</v>
       </c>
       <c r="G34">
-        <v>191.9329930898662</v>
+        <v>4841533.689498574</v>
       </c>
       <c r="H34">
-        <v>2043.67701839457</v>
+        <v>3986174.614255137</v>
       </c>
       <c r="I34">
-        <v>-96.89016339031176</v>
+        <v>1116277.217893118</v>
       </c>
       <c r="J34">
-        <v>253.0221897310107</v>
+        <v>4841664.457025719</v>
       </c>
       <c r="K34">
-        <v>3412.016053130314</v>
+        <v>3986576.390742465</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>67.12820952135064</v>
+        <v>1116409.285045213</v>
       </c>
       <c r="G35">
-        <v>202.0645390885928</v>
+        <v>4841550.202305184</v>
       </c>
       <c r="H35">
-        <v>2056.948185799169</v>
+        <v>3986186.352581124</v>
       </c>
       <c r="I35">
-        <v>-21.81037238475346</v>
+        <v>1116341.718311269</v>
       </c>
       <c r="J35">
-        <v>225.2438883309569</v>
+        <v>4841615.805457246</v>
       </c>
       <c r="K35">
-        <v>3132.343871841809</v>
+        <v>3986395.429667342</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>65.87423208233756</v>
+        <v>1116408.383663382</v>
       </c>
       <c r="G36">
-        <v>212.1960850873194</v>
+        <v>4841566.715111795</v>
       </c>
       <c r="H36">
-        <v>2069.719575881306</v>
+        <v>3986197.648854882</v>
       </c>
       <c r="I36">
-        <v>55.11818940217574</v>
+        <v>1116407.806992878</v>
       </c>
       <c r="J36">
-        <v>197.4655869309034</v>
+        <v>4841567.153888774</v>
       </c>
       <c r="K36">
-        <v>2829.259709768528</v>
+        <v>3986199.31993784</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>64.68797276718412</v>
+        <v>1116407.530958572</v>
       </c>
       <c r="G37">
-        <v>222.327631086046</v>
+        <v>4841583.227918406</v>
       </c>
       <c r="H37">
-        <v>2082.027468618132</v>
+        <v>3986208.535165991</v>
       </c>
       <c r="I37">
-        <v>133.9410462501288</v>
+        <v>1116475.523047471</v>
       </c>
       <c r="J37">
-        <v>169.6872855308496</v>
+        <v>4841518.502320302</v>
       </c>
       <c r="K37">
-        <v>2502.763566910469</v>
+        <v>3985988.06155396</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>63.56355048538239</v>
+        <v>1116406.722703349</v>
       </c>
       <c r="G38">
-        <v>232.4591770847726</v>
+        <v>4841599.740725016</v>
       </c>
       <c r="H38">
-        <v>2093.904331492479</v>
+        <v>3986219.040231888</v>
       </c>
       <c r="I38">
-        <v>214.7048434322649</v>
+        <v>1116544.906547611</v>
       </c>
       <c r="J38">
-        <v>141.908984130796</v>
+        <v>4841469.85075183</v>
       </c>
       <c r="K38">
-        <v>2152.855443267634</v>
+        <v>3985761.654515701</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>62.49577496966591</v>
+        <v>1116405.955166853</v>
       </c>
       <c r="G39">
-        <v>242.5907230834992</v>
+        <v>4841616.253531626</v>
       </c>
       <c r="H39">
-        <v>2105.379335646809</v>
+        <v>3986229.189854401</v>
       </c>
       <c r="I39">
-        <v>297.4573748186792</v>
+        <v>1116615.99855261</v>
       </c>
       <c r="J39">
-        <v>114.1306827307423</v>
+        <v>4841421.199183357</v>
       </c>
       <c r="K39">
-        <v>1779.535338840019</v>
+        <v>3985520.098823064</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>61.48004586206135</v>
+        <v>1116405.225042264</v>
       </c>
       <c r="G40">
-        <v>252.7222690822257</v>
+        <v>4841632.766338238</v>
       </c>
       <c r="H40">
-        <v>2116.478787540001</v>
+        <v>3986239.007301549</v>
       </c>
       <c r="I40">
-        <v>382.2476111595518</v>
+        <v>1116688.841132829</v>
       </c>
       <c r="J40">
-        <v>86.35238133068859</v>
+        <v>4841372.547614885</v>
       </c>
       <c r="K40">
-        <v>1382.803253627628</v>
+        <v>3985263.39447605</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>60.51226924554596</v>
+        <v>1116404.5293868</v>
       </c>
       <c r="G41">
-        <v>262.8538150809523</v>
+        <v>4841649.279144848</v>
       </c>
       <c r="H41">
-        <v>2127.22649218125</v>
+        <v>3986248.513628826</v>
       </c>
       <c r="I41">
-        <v>469.12572906473</v>
+        <v>1116763.477394572</v>
       </c>
       <c r="J41">
-        <v>58.574079930635</v>
+        <v>4841323.896046413</v>
       </c>
       <c r="K41">
-        <v>962.6591876304607</v>
+        <v>3984991.541474656</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>59.58878816660023</v>
+        <v>1116403.865571774</v>
       </c>
       <c r="G42">
-        <v>272.9853610796789</v>
+        <v>4841665.791951459</v>
       </c>
       <c r="H42">
-        <v>2137.64406055717</v>
+        <v>3986257.727951112</v>
       </c>
       <c r="I42">
-        <v>558.1431406969222</v>
+        <v>1116839.951505596</v>
       </c>
       <c r="J42">
-        <v>30.79577853058128</v>
+        <v>4841275.244477941</v>
       </c>
       <c r="K42">
-        <v>519.1031408485145</v>
+        <v>3984704.539818883</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>58.70632445978102</v>
+        <v>1116403.231240783</v>
       </c>
       <c r="G43">
-        <v>283.1169070784055</v>
+        <v>4841682.304758069</v>
       </c>
       <c r="H43">
-        <v>2147.751171235012</v>
+        <v>3986266.66767407</v>
       </c>
       <c r="I43">
-        <v>649.3525241960392</v>
+        <v>1116918.308721249</v>
       </c>
       <c r="J43">
-        <v>3.017477130527558</v>
+        <v>4841226.592909467</v>
       </c>
       <c r="K43">
-        <v>52.13511328179122</v>
+        <v>3984402.389508734</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>57.86192976444888</v>
+        <v>1116402.624274491</v>
       </c>
       <c r="G44">
-        <v>293.2484530771321</v>
+        <v>4841698.817564679</v>
       </c>
       <c r="H44">
-        <v>2157.565794101684</v>
+        <v>3986275.348692033</v>
       </c>
       <c r="I44">
-        <v>742.8078548527271</v>
+        <v>1116998.59541125</v>
       </c>
       <c r="J44">
-        <v>-24.76082426952603</v>
+        <v>4841177.941340996</v>
       </c>
       <c r="K44">
-        <v>-438.244895069708</v>
+        <v>3984085.090544205</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>57.05294406546048</v>
+        <v>1116402.042760831</v>
       </c>
       <c r="G45">
-        <v>303.3799990758586</v>
+        <v>4841715.33037129</v>
       </c>
       <c r="H45">
-        <v>2167.10438263047</v>
+        <v>3986283.785558074</v>
       </c>
       <c r="I45">
-        <v>838.5644370495088</v>
+        <v>1117080.85908713</v>
       </c>
       <c r="J45">
-        <v>-52.53912566957975</v>
+        <v>4841129.289772524</v>
       </c>
       <c r="K45">
-        <v>-952.036884205986</v>
+        <v>3983752.642925298</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>56.27696042938907</v>
+        <v>1116401.484969655</v>
       </c>
       <c r="G46">
-        <v>313.5115450745853</v>
+        <v>4841731.8431779</v>
       </c>
       <c r="H46">
-        <v>2176.382039842898</v>
+        <v>3986291.991630791</v>
       </c>
       <c r="I46">
-        <v>936.6789369884466</v>
+        <v>1117165.148430348</v>
       </c>
       <c r="J46">
-        <v>-80.31742706963348</v>
+        <v>4841080.638204051</v>
       </c>
       <c r="K46">
-        <v>-1489.240854127043</v>
+        <v>3983405.046652012</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>55.53179487126466</v>
+        <v>1116400.949331075</v>
       </c>
       <c r="G47">
-        <v>323.6430910733118</v>
+        <v>4841748.355984511</v>
       </c>
       <c r="H47">
-        <v>2185.412662169611</v>
+        <v>3986299.979201552</v>
       </c>
       <c r="I47">
-        <v>1037.209416224696</v>
+        <v>1117251.513321097</v>
       </c>
       <c r="J47">
-        <v>-108.0957284696872</v>
+        <v>4841031.986635579</v>
       </c>
       <c r="K47">
-        <v>-2049.856804832876</v>
+        <v>3983042.301724349</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>54.81546049257799</v>
+        <v>1116400.434416872</v>
       </c>
       <c r="G48">
-        <v>333.7746370720384</v>
+        <v>4841764.868791122</v>
       </c>
       <c r="H48">
-        <v>2194.209064650644</v>
+        <v>3986307.759605241</v>
       </c>
       <c r="I48">
-        <v>1140.215366025792</v>
+        <v>1117340.004867828</v>
       </c>
       <c r="J48">
-        <v>-135.8740298697407</v>
+        <v>4840983.335067106</v>
       </c>
       <c r="K48">
-        <v>-2633.884736323482</v>
+        <v>3982664.408142306</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>54.1261451931422</v>
+        <v>1116399.938924475</v>
       </c>
       <c r="G49">
-        <v>343.906183070765</v>
+        <v>4841781.381597732</v>
       </c>
       <c r="H49">
-        <v>2202.7830903064</v>
+        <v>3986315.343316989</v>
       </c>
       <c r="I49">
-        <v>1245.757742577005</v>
+        <v>1117430.675437485</v>
       </c>
       <c r="J49">
-        <v>-163.6523312697944</v>
+        <v>4840934.683498635</v>
       </c>
       <c r="K49">
-        <v>-3241.324648598869</v>
+        <v>3982271.365905886</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>53.46219238755173</v>
+        <v>1116399.461663101</v>
       </c>
       <c r="G50">
-        <v>354.0377290694915</v>
+        <v>4841797.894404342</v>
       </c>
       <c r="H50">
-        <v>2211.145706021834</v>
+        <v>3986322.74003699</v>
       </c>
       <c r="I50">
-        <v>1353.899003053585</v>
+        <v>1117523.578686505</v>
       </c>
       <c r="J50">
-        <v>-191.4306326698481</v>
+        <v>4840886.031930162</v>
       </c>
       <c r="K50">
-        <v>-3872.176541659035</v>
+        <v>3981863.175015087</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>52.82208425908318</v>
+        <v>1116399.001541716</v>
       </c>
       <c r="G51">
-        <v>364.1692750682181</v>
+        <v>4841814.407210954</v>
       </c>
       <c r="H51">
-        <v>2219.307086891588</v>
+        <v>3986329.958765096</v>
       </c>
       <c r="I51">
-        <v>1464.703142581265</v>
+        <v>1117618.769592562</v>
       </c>
       <c r="J51">
-        <v>-219.2089340699018</v>
+        <v>4840837.38036169</v>
       </c>
       <c r="K51">
-        <v>-4526.440415503977</v>
+        <v>3981439.83546991</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>52.20442716572211</v>
+        <v>1116398.557558543</v>
       </c>
       <c r="G52">
-        <v>374.3008210669448</v>
+        <v>4841830.920017564</v>
       </c>
       <c r="H52">
-        <v>2227.276690653387</v>
+        <v>3986337.007866663</v>
       </c>
       <c r="I52">
-        <v>1578.235732106877</v>
+        <v>1117716.304487108</v>
       </c>
       <c r="J52">
-        <v>-246.9872354699556</v>
+        <v>4840788.728793218</v>
       </c>
       <c r="K52">
-        <v>-5204.116270133697</v>
+        <v>3981001.347270354</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>51.60793887895704</v>
+        <v>1116398.128791895</v>
       </c>
       <c r="G53">
-        <v>384.4323670656713</v>
+        <v>4841847.432824175</v>
       </c>
       <c r="H53">
-        <v>2235.063323575363</v>
+        <v>3986343.895130819</v>
       </c>
       <c r="I53">
-        <v>1694.563957201487</v>
+        <v>1117816.2410887</v>
       </c>
       <c r="J53">
-        <v>-274.765536870009</v>
+        <v>4840740.077224745</v>
       </c>
       <c r="K53">
-        <v>-5905.20410554819</v>
+        <v>3980547.71041642</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>51.03143738943845</v>
+        <v>1116397.71439212</v>
       </c>
       <c r="G54">
-        <v>394.5639130643979</v>
+        <v>4841863.945630785</v>
       </c>
       <c r="H54">
-        <v>2242.675198948404</v>
+        <v>3986350.627822207</v>
       </c>
       <c r="I54">
-        <v>1813.756657819049</v>
+        <v>1117918.638537168</v>
       </c>
       <c r="J54">
-        <v>-302.5438382700627</v>
+        <v>4840691.425656273</v>
       </c>
       <c r="K54">
-        <v>-6629.703921747464</v>
+        <v>3980078.924908108</v>
       </c>
     </row>
   </sheetData>
